--- a/ANOVA prey size.xlsx
+++ b/ANOVA prey size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elanportner/github/Dosidicus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD9FA34E-0A6D-174B-99EC-8C288FA9802A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57260F04-7D6B-3F41-B360-BD7C6FD6755B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{65A89E48-DAF4-F041-8DFF-2DC4D8CDFED9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{65A89E48-DAF4-F041-8DFF-2DC4D8CDFED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20E0574-BDA5-484F-AF75-25F9C5DE5C67}">
   <dimension ref="A1:K190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
